--- a/DataSource/Autorizaciones.xlsx
+++ b/DataSource/Autorizaciones.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgomeza\Documents\Ranorex\RanorexStudio Projects\CuentasMedicas_Sanitas\DataSource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dgomeza\Documents\Ranorex\Git\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C02FF9-CF01-4EEF-8177-9ED6885EAB77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D89071-411B-460D-8CAC-9AFA8C83597F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{551A1C93-32D2-4B4B-8647-1F37B961C4B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{551A1C93-32D2-4B4B-8647-1F37B961C4B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Autorizaciones</t>
   </si>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>CC-25241239</t>
+  </si>
+  <si>
+    <t>SolicitudId</t>
+  </si>
+  <si>
+    <t>FD50AA61-F7F9-42AC-A1A0-4B15D2569F90</t>
+  </si>
+  <si>
+    <t>C3926985-3D70-4712-9FC6-EEC7C51608B5</t>
+  </si>
+  <si>
+    <t>CC-93366092</t>
   </si>
 </sst>
 </file>
@@ -461,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5146FD50-652F-4D79-9B3B-0EDF36F16AB7}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,6 +486,7 @@
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -557,4 +570,46 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78BA1F9-2E4F-417C-936E-DBDA2F48285D}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>